--- a/GUIA 2 DMD RG180141/Ejercicio complementario/Compra.xlsx
+++ b/GUIA 2 DMD RG180141/Ejercicio complementario/Compra.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josu_\Desktop\GUIA 2 DMD RG180141\Ejercicio complementario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9BF3B66-27F7-49C3-BA98-A343DDF2F10A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{998E74A9-9142-459D-B040-14AD7FE185C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Compra" sheetId="1" r:id="rId1"/>
+    <sheet name="Compras" sheetId="1" r:id="rId1"/>
     <sheet name="Sector_venta" sheetId="2" r:id="rId2"/>
     <sheet name="Vendedor" sheetId="3" r:id="rId3"/>
     <sheet name="Fecha" sheetId="4" r:id="rId4"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="137">
   <si>
     <t>n_region</t>
   </si>
@@ -768,7 +768,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1010,7 +1010,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1216,7 +1216,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1490,7 +1490,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1859,9 +1859,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{400CF304-B3FF-4C40-A24D-63BC94A48E5F}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2263,96 +2261,143 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2DCEE39-0C30-4DE7-8F43-093A120CD1A3}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" t="s">
         <v>135</v>
       </c>
-      <c r="B1" t="s">
+      <c r="G1" t="s">
         <v>136</v>
       </c>
-      <c r="C1" t="s">
+      <c r="H1" t="s">
         <v>39</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I1" t="s">
         <v>40</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
         <v>41</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
         <v>42</v>
       </c>
-      <c r="G1" t="s">
+      <c r="L1" t="s">
         <v>43</v>
       </c>
-      <c r="H1" t="s">
+      <c r="M1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>9</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
         <v>2000</v>
       </c>
-      <c r="D2">
+      <c r="I2">
         <v>1350</v>
       </c>
-      <c r="E2">
+      <c r="J2">
         <v>650</v>
       </c>
-      <c r="F2">
+      <c r="K2">
         <v>300</v>
       </c>
-      <c r="G2">
+      <c r="L2">
         <v>300</v>
       </c>
-      <c r="H2">
+      <c r="M2">
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
         <v>1500</v>
       </c>
-      <c r="D3">
+      <c r="I3">
         <v>1000</v>
       </c>
-      <c r="E3">
+      <c r="J3">
         <v>500</v>
       </c>
-      <c r="F3">
+      <c r="K3">
         <v>200</v>
       </c>
-      <c r="G3">
+      <c r="L3">
         <v>200</v>
       </c>
-      <c r="H3">
+      <c r="M3">
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2360,73 +2405,118 @@
         <v>3</v>
       </c>
       <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>7</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
         <v>2350</v>
       </c>
-      <c r="D4">
+      <c r="I4">
         <v>1890</v>
       </c>
-      <c r="E4">
+      <c r="J4">
         <v>460</v>
       </c>
-      <c r="F4">
+      <c r="K4">
         <v>460</v>
       </c>
-      <c r="G4">
+      <c r="L4">
         <v>460</v>
       </c>
-      <c r="H4">
+      <c r="M4">
         <v>260</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5">
         <v>785</v>
       </c>
-      <c r="D5">
+      <c r="I5">
         <v>490</v>
       </c>
-      <c r="E5">
+      <c r="J5">
         <v>295</v>
       </c>
-      <c r="F5">
+      <c r="K5">
         <v>135</v>
       </c>
-      <c r="G5">
+      <c r="L5">
         <v>135</v>
       </c>
-      <c r="H5">
+      <c r="M5">
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
         <v>5</v>
       </c>
-      <c r="C6">
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6">
         <v>978</v>
       </c>
-      <c r="D6">
+      <c r="I6">
         <v>580</v>
       </c>
-      <c r="E6">
+      <c r="J6">
         <v>398</v>
       </c>
-      <c r="F6">
+      <c r="K6">
         <v>160</v>
       </c>
-      <c r="G6">
+      <c r="L6">
         <v>160</v>
       </c>
-      <c r="H6">
+      <c r="M6">
         <v>160</v>
       </c>
     </row>
